--- a/biology/Botanique/Acacia_ehrenbergiana/Acacia_ehrenbergiana.xlsx
+++ b/biology/Botanique/Acacia_ehrenbergiana/Acacia_ehrenbergiana.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Acacia ehrenbergiana, connu sous le nom de salam en arabe ou tamat en langue touareg, est un arbuste tolérant la sècheresse, dont l'aire de répartition s'étend au nord du Sahel, au Sahara, dans la Corne de l'Afrique et dans la péninsule Arabique.
 </t>
